--- a/cours4_modelisation/donnees/données_lotto649.xlsx
+++ b/cours4_modelisation/donnees/données_lotto649.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11091150\Documents\cours\1_605\H2018\04 modélisation\séance4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Google Drive\HEC Montreal\Certificat Analytique\H2020_IntroAnalytique\MATH30650\cours4_modelisation\donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADB363A-D3D3-4BAD-BB74-A72AD3EC31AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="18480" windowHeight="11385"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="données" sheetId="2" r:id="rId1"/>
     <sheet name="graphique" sheetId="3" r:id="rId2"/>
     <sheet name="Feuil2" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -108,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
@@ -351,9 +362,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -397,7 +408,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -434,8 +444,8 @@
           </c:marker>
           <c:trendline>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -452,7 +462,7 @@
                   <a:pPr>
                     <a:defRPr sz="1600"/>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1724,6 +1734,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23F0-42F2-9A04-2A09A083F01E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1772,7 +1787,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -1793,7 +1807,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314581352"/>
@@ -1824,7 +1838,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -1838,7 +1851,7 @@
             <a:pPr>
               <a:defRPr sz="1600"/>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314581744"/>
@@ -1875,7 +1888,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 7"/>
+        <xdr:cNvPr id="2" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1896,7 +1915,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1971,6 +1990,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2006,6 +2042,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2181,21 +2234,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2209,7 +2262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1782311.9</v>
       </c>
@@ -2225,7 +2278,7 @@
         <v>16.028341999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1809349.4</v>
       </c>
@@ -2241,7 +2294,7 @@
         <v>15.731842</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1816727.1</v>
       </c>
@@ -2257,7 +2310,7 @@
         <v>15.932143</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1853942.0999999999</v>
       </c>
@@ -2273,7 +2326,7 @@
         <v>16.338187000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1862068.8</v>
       </c>
@@ -2289,7 +2342,7 @@
         <v>14.810617000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1865625.6000000001</v>
       </c>
@@ -2305,7 +2358,7 @@
         <v>15.261825</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1875124.8</v>
       </c>
@@ -2321,7 +2374,7 @@
         <v>15.597132999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1888424</v>
       </c>
@@ -2337,7 +2390,7 @@
         <v>15.274350999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1906873</v>
       </c>
@@ -2353,7 +2406,7 @@
         <v>15.949837</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1931208.1</v>
       </c>
@@ -2369,7 +2422,7 @@
         <v>15.118325</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1937566.5</v>
       </c>
@@ -2385,7 +2438,7 @@
         <v>15.428140000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1971503.2</v>
       </c>
@@ -2401,7 +2454,7 @@
         <v>16.027481000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1975182.8</v>
       </c>
@@ -2417,7 +2470,7 @@
         <v>16.487857000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1984782.8</v>
       </c>
@@ -2433,7 +2486,7 @@
         <v>15.406568999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1985085.2</v>
       </c>
@@ -2449,7 +2502,7 @@
         <v>14.71269</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1990183.7</v>
       </c>
@@ -2465,7 +2518,7 @@
         <v>14.90015</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1992841.6</v>
       </c>
@@ -2481,7 +2534,7 @@
         <v>14.906585</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1994780.2</v>
       </c>
@@ -2497,7 +2550,7 @@
         <v>14.926178999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2003425.5</v>
       </c>
@@ -2513,7 +2566,7 @@
         <v>15.645447000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2017364.1</v>
       </c>
@@ -2529,7 +2582,7 @@
         <v>15.012862999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2020036</v>
       </c>
@@ -2545,7 +2598,7 @@
         <v>16.350183000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2028602.7</v>
       </c>
@@ -2561,7 +2614,7 @@
         <v>17.191790000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2044597.8</v>
       </c>
@@ -2577,7 +2630,7 @@
         <v>14.790457</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2053147</v>
       </c>
@@ -2593,7 +2646,7 @@
         <v>16.649698000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2056198</v>
       </c>
@@ -2609,7 +2662,7 @@
         <v>15.817548</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2057686.7999999998</v>
       </c>
@@ -2625,7 +2678,7 @@
         <v>15.329319999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2065514.2</v>
       </c>
@@ -2641,7 +2694,7 @@
         <v>15.086930000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2066568.2999999998</v>
       </c>
@@ -2657,7 +2710,7 @@
         <v>16.878769999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2067972.2</v>
       </c>
@@ -2673,7 +2726,7 @@
         <v>15.67981</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2088436.3</v>
       </c>
@@ -2689,7 +2742,7 @@
         <v>14.999485999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2098978.7999999998</v>
       </c>
@@ -2705,7 +2758,7 @@
         <v>17.974616999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2102554.1</v>
       </c>
@@ -2721,7 +2774,7 @@
         <v>15.317174</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2103084.7999999998</v>
       </c>
@@ -2737,7 +2790,7 @@
         <v>15.393554999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2108151.4</v>
       </c>
@@ -2753,7 +2806,7 @@
         <v>14.952472999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2126751.6</v>
       </c>
@@ -2769,7 +2822,7 @@
         <v>15.831985</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2132726</v>
       </c>
@@ -2785,7 +2838,7 @@
         <v>17.171092999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2140888.2000000002</v>
       </c>
@@ -2801,7 +2854,7 @@
         <v>15.132659</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2142448</v>
       </c>
@@ -2817,7 +2870,7 @@
         <v>15.53548</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2142593.6</v>
       </c>
@@ -2833,7 +2886,7 @@
         <v>15.352683000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2150518.2000000002</v>
       </c>
@@ -2849,7 +2902,7 @@
         <v>17.320526000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2152621.7999999998</v>
       </c>
@@ -2865,7 +2918,7 @@
         <v>16.083207999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2158236.6</v>
       </c>
@@ -2881,7 +2934,7 @@
         <v>16.190096</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2159727.2000000002</v>
       </c>
@@ -2897,7 +2950,7 @@
         <v>15.43641</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2163711.2000000002</v>
       </c>
@@ -2913,7 +2966,7 @@
         <v>16.938538999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2166154.6</v>
       </c>
@@ -2929,7 +2982,7 @@
         <v>15.738025</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2168262.5</v>
       </c>
@@ -2945,7 +2998,7 @@
         <v>14.7333</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2178435.2000000002</v>
       </c>
@@ -2961,7 +3014,7 @@
         <v>15.413201000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2203166.7999999998</v>
       </c>
@@ -2977,7 +3030,7 @@
         <v>16.089497000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2215020.9</v>
       </c>
@@ -2993,7 +3046,7 @@
         <v>15.255070999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2217143.6</v>
       </c>
@@ -3009,7 +3062,7 @@
         <v>16.595683000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2217321.1</v>
       </c>
@@ -3025,7 +3078,7 @@
         <v>15.480605000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2222051.2999999998</v>
       </c>
@@ -3041,7 +3094,7 @@
         <v>16.619316999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2222087</v>
       </c>
@@ -3057,7 +3110,7 @@
         <v>15.311698</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2224060.4</v>
       </c>
@@ -3073,7 +3126,7 @@
         <v>15.843223999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2225780.7999999998</v>
       </c>
@@ -3089,7 +3142,7 @@
         <v>18.595257</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2227755.1</v>
       </c>
@@ -3105,7 +3158,7 @@
         <v>18.866845000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2241212.1</v>
       </c>
@@ -3121,7 +3174,7 @@
         <v>16.677965</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2253518.4</v>
       </c>
@@ -3137,7 +3190,7 @@
         <v>15.830681999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2255021.6</v>
       </c>
@@ -3153,7 +3206,7 @@
         <v>18.662362999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2267670</v>
       </c>
@@ -3169,7 +3222,7 @@
         <v>16.315111000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2272924.6</v>
       </c>
@@ -3185,7 +3238,7 @@
         <v>18.156932000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>2279035.5</v>
       </c>
@@ -3201,7 +3254,7 @@
         <v>17.201668999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2282709.6</v>
       </c>
@@ -3217,7 +3270,7 @@
         <v>17.843865000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2284218.2999999998</v>
       </c>
@@ -3233,7 +3286,7 @@
         <v>15.438015</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2287982</v>
       </c>
@@ -3249,7 +3302,7 @@
         <v>16.167898000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2292482.2000000002</v>
       </c>
@@ -3265,7 +3318,7 @@
         <v>17.454743000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2300243.7999999998</v>
       </c>
@@ -3281,7 +3334,7 @@
         <v>16.762528</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2307614.4000000004</v>
       </c>
@@ -3297,7 +3350,7 @@
         <v>15.139576</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2325315.9000000004</v>
       </c>
@@ -3313,7 +3366,7 @@
         <v>17.393605000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2334613.6</v>
       </c>
@@ -3329,7 +3382,7 @@
         <v>17.479927</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2335211.2000000002</v>
       </c>
@@ -3345,7 +3398,7 @@
         <v>16.235893999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2336152.9</v>
       </c>
@@ -3361,7 +3414,7 @@
         <v>17.519124000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2339972.2000000002</v>
       </c>
@@ -3377,7 +3430,7 @@
         <v>16.570520999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2345282.5</v>
       </c>
@@ -3393,7 +3446,7 @@
         <v>17.323789000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2347117.6</v>
       </c>
@@ -3409,7 +3462,7 @@
         <v>16.600545</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2358075.2000000002</v>
       </c>
@@ -3425,7 +3478,7 @@
         <v>17.751778999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2358142.2000000002</v>
       </c>
@@ -3441,7 +3494,7 @@
         <v>16.762920999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2363052.7999999998</v>
       </c>
@@ -3457,7 +3510,7 @@
         <v>18.109835</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2371125.6</v>
       </c>
@@ -3473,7 +3526,7 @@
         <v>17.543624999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2378380</v>
       </c>
@@ -3489,7 +3542,7 @@
         <v>15.357200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>2397501</v>
       </c>
@@ -3505,7 +3558,7 @@
         <v>18.261538000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2398079.2999999998</v>
       </c>
@@ -3521,7 +3574,7 @@
         <v>17.169685999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2411303.4</v>
       </c>
@@ -3537,7 +3590,7 @@
         <v>15.545282</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2413641.6</v>
       </c>
@@ -3553,7 +3606,7 @@
         <v>15.789695999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2418128.7000000002</v>
       </c>
@@ -3569,7 +3622,7 @@
         <v>16.407039000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2419400.7999999998</v>
       </c>
@@ -3585,7 +3638,7 @@
         <v>17.533338000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>2424787.5</v>
       </c>
@@ -3601,7 +3654,7 @@
         <v>16.990167</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2428217.2000000002</v>
       </c>
@@ -3617,7 +3670,7 @@
         <v>16.719031999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2429123.6</v>
       </c>
@@ -3633,7 +3686,7 @@
         <v>16.115416</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2434832.9</v>
       </c>
@@ -3649,7 +3702,7 @@
         <v>19.044191000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2437405</v>
       </c>
@@ -3665,7 +3718,7 @@
         <v>17.723756000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2445581.2000000002</v>
       </c>
@@ -3681,7 +3734,7 @@
         <v>19.402939</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2449418.7000000002</v>
       </c>
@@ -3697,7 +3750,7 @@
         <v>17.834949999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2455669.1</v>
       </c>
@@ -3713,7 +3766,7 @@
         <v>17.784485</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2457996.4</v>
       </c>
@@ -3729,7 +3782,7 @@
         <v>17.921628999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2461805.0999999996</v>
       </c>
@@ -3745,7 +3798,7 @@
         <v>18.410378999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>2462365.6</v>
       </c>
@@ -3761,7 +3814,7 @@
         <v>17.538225000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2490639.4</v>
       </c>
@@ -3777,7 +3830,7 @@
         <v>17.343063999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2493945</v>
       </c>
@@ -3793,7 +3846,7 @@
         <v>16.927689000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2500126</v>
       </c>
@@ -3809,7 +3862,7 @@
         <v>18.140360000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2502273.2999999998</v>
       </c>
@@ -3825,7 +3878,7 @@
         <v>17.102969999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2503103.4</v>
       </c>
@@ -3841,7 +3894,7 @@
         <v>17.522549000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2519640.9</v>
       </c>
@@ -3857,7 +3910,7 @@
         <v>18.517893000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>2530693.6</v>
       </c>
@@ -3873,7 +3926,7 @@
         <v>19.484995000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>2533227.7999999998</v>
       </c>
@@ -3889,7 +3942,7 @@
         <v>16.992346000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2540912.4</v>
       </c>
@@ -3905,7 +3958,7 @@
         <v>17.542121999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2545447.7999999998</v>
       </c>
@@ -3921,7 +3974,7 @@
         <v>18.864146000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>2555281.1</v>
       </c>
@@ -3937,7 +3990,7 @@
         <v>17.366582999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>2559122.9</v>
       </c>
@@ -3953,7 +4006,7 @@
         <v>17.720924</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>2561535.9</v>
       </c>
@@ -3969,7 +4022,7 @@
         <v>19.004781999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>2566525.7999999998</v>
       </c>
@@ -3985,7 +4038,7 @@
         <v>19.591715000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>2569023.4</v>
       </c>
@@ -4001,7 +4054,7 @@
         <v>17.572659999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>2597196</v>
       </c>
@@ -4017,7 +4070,7 @@
         <v>18.455159999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>2608441.2999999998</v>
       </c>
@@ -4033,7 +4086,7 @@
         <v>18.968627999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2612960.4</v>
       </c>
@@ -4049,7 +4102,7 @@
         <v>19.213113</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>2615014.6</v>
       </c>
@@ -4065,7 +4118,7 @@
         <v>18.724843</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>2627336</v>
       </c>
@@ -4081,7 +4134,7 @@
         <v>17.599449</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>2628221.6</v>
       </c>
@@ -4097,7 +4150,7 @@
         <v>17.605763</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>2631174.6</v>
       </c>
@@ -4113,7 +4166,7 @@
         <v>17.549154000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>2637536.2000000002</v>
       </c>
@@ -4129,7 +4182,7 @@
         <v>21.034161000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>2639037.4</v>
       </c>
@@ -4145,7 +4198,7 @@
         <v>18.651122000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>2668471.6</v>
       </c>
@@ -4161,7 +4214,7 @@
         <v>18.389140999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>2670034</v>
       </c>
@@ -4177,7 +4230,7 @@
         <v>19.265239999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>2723591.6</v>
       </c>
@@ -4193,7 +4246,7 @@
         <v>18.546074000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>2750021.8</v>
       </c>
@@ -4209,7 +4262,7 @@
         <v>19.455674999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>2756782.4</v>
       </c>
@@ -4225,7 +4278,7 @@
         <v>19.245211000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>2759171.3</v>
       </c>
@@ -4241,7 +4294,7 @@
         <v>19.218205999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>2790860.2</v>
       </c>
@@ -4257,7 +4310,7 @@
         <v>19.118801000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>2847857.1</v>
       </c>
@@ -4273,7 +4326,7 @@
         <v>19.473654</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>2899085.4</v>
       </c>
@@ -4289,7 +4342,7 @@
         <v>18.558558000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>2966298.5</v>
       </c>
@@ -4305,7 +4358,7 @@
         <v>19.964749000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>2991944.6</v>
       </c>
@@ -4321,7 +4374,7 @@
         <v>21.062775999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>2998759.8</v>
       </c>
@@ -4337,7 +4390,7 @@
         <v>22.767976999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>4752720.0999999996</v>
       </c>
@@ -4353,7 +4406,7 @@
         <v>19.467227999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>4848705.8</v>
       </c>
@@ -4369,7 +4422,7 @@
         <v>21.091733000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>4951172.0999999996</v>
       </c>
@@ -4385,7 +4438,7 @@
         <v>18.107043000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>5000000</v>
       </c>
@@ -4401,7 +4454,7 @@
         <v>21.443595999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>5000000</v>
       </c>
@@ -4417,7 +4470,7 @@
         <v>20.702407999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>5000000</v>
       </c>
@@ -4433,7 +4486,7 @@
         <v>19.979922999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>5000000</v>
       </c>
@@ -4449,7 +4502,7 @@
         <v>22.535812</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>5000000</v>
       </c>
@@ -4465,7 +4518,7 @@
         <v>19.945364999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>5000000</v>
       </c>
@@ -4481,7 +4534,7 @@
         <v>18.242343999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>5000000</v>
       </c>
@@ -4497,7 +4550,7 @@
         <v>19.815314999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>5000000</v>
       </c>
@@ -4513,7 +4566,7 @@
         <v>18.657015999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>5000000</v>
       </c>
@@ -4529,7 +4582,7 @@
         <v>19.930437999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>5000000</v>
       </c>
@@ -4545,7 +4598,7 @@
         <v>22.035343000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>5000000.0999999996</v>
       </c>
@@ -4561,7 +4614,7 @@
         <v>18.887084999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>5000000.0999999996</v>
       </c>
@@ -4577,7 +4630,7 @@
         <v>20.285064999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>5042113.5999999996</v>
       </c>
@@ -4593,7 +4646,7 @@
         <v>20.770575000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>5052561.7</v>
       </c>
@@ -4609,7 +4662,7 @@
         <v>20.007598999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>5074381.4000000004</v>
       </c>
@@ -4625,7 +4678,7 @@
         <v>21.06109</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>5077143.2</v>
       </c>
@@ -4641,7 +4694,7 @@
         <v>18.068449000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>5124608.5</v>
       </c>
@@ -4657,7 +4710,7 @@
         <v>20.970423</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>5124923.8</v>
       </c>
@@ -4673,7 +4726,7 @@
         <v>23.014713</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>5161539.5999999996</v>
       </c>
@@ -4689,7 +4742,7 @@
         <v>21.910657</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>5196194.9000000004</v>
       </c>
@@ -4705,7 +4758,7 @@
         <v>20.638335000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>5204772.3</v>
       </c>
@@ -4721,7 +4774,7 @@
         <v>20.557397999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>5220383.2</v>
       </c>
@@ -4737,7 +4790,7 @@
         <v>21.551596</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>5221495.0999999996</v>
       </c>
@@ -4753,7 +4806,7 @@
         <v>19.701640999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>5290060.4000000004</v>
       </c>
@@ -4769,7 +4822,7 @@
         <v>21.668419</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>5349032.2</v>
       </c>
@@ -4785,7 +4838,7 @@
         <v>19.481597000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>5352484</v>
       </c>
@@ -4801,7 +4854,7 @@
         <v>21.653922000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>5396936.9000000004</v>
       </c>
@@ -4817,7 +4870,7 @@
         <v>21.233231</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>5428825.8000000007</v>
       </c>
@@ -4833,7 +4886,7 @@
         <v>22.641931</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>5464899.7999999998</v>
       </c>
@@ -4849,7 +4902,7 @@
         <v>23.088719999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>5476638.4000000004</v>
       </c>
@@ -4865,7 +4918,7 @@
         <v>23.001714</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>5491369.5</v>
       </c>
@@ -4881,7 +4934,7 @@
         <v>19.551238000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>5493586.7999999998</v>
       </c>
@@ -4897,7 +4950,7 @@
         <v>22.761859000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>5545791.5999999996</v>
       </c>
@@ -4913,7 +4966,7 @@
         <v>20.603441</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>5576929.8000000007</v>
       </c>
@@ -4929,7 +4982,7 @@
         <v>22.665794000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>5622411.5999999996</v>
       </c>
@@ -4945,7 +4998,7 @@
         <v>23.475891000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>5699746.4000000004</v>
       </c>
@@ -4961,7 +5014,7 @@
         <v>20.238845000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>5701309.5999999996</v>
       </c>
@@ -4977,7 +5030,7 @@
         <v>21.191153</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>5758290</v>
       </c>
@@ -4993,7 +5046,7 @@
         <v>20.489280999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>5825437.7999999998</v>
       </c>
@@ -5009,7 +5062,7 @@
         <v>21.15767</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>5952369.2999999998</v>
       </c>
@@ -5025,7 +5078,7 @@
         <v>21.699736999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>6641215.2000000002</v>
       </c>
@@ -5041,7 +5094,7 @@
         <v>24.361224</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>8000000</v>
       </c>
@@ -5057,7 +5110,7 @@
         <v>26.498567999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>10000000</v>
       </c>
@@ -5073,7 +5126,7 @@
         <v>32.371872000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>10000000</v>
       </c>
@@ -5089,7 +5142,7 @@
         <v>29.504158</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>10000000</v>
       </c>
@@ -5105,7 +5158,7 @@
         <v>29.238439</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>10000000</v>
       </c>
@@ -5121,7 +5174,7 @@
         <v>28.584882</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>10000000</v>
       </c>
@@ -5137,7 +5190,7 @@
         <v>29.728287000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>10000000</v>
       </c>
@@ -5153,7 +5206,7 @@
         <v>29.736663</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>10000000</v>
       </c>
@@ -5169,7 +5222,7 @@
         <v>30.076049000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>10000000</v>
       </c>
@@ -5185,7 +5238,7 @@
         <v>28.983751999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>10000000</v>
       </c>
@@ -5201,7 +5254,7 @@
         <v>26.191071999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>10000000</v>
       </c>
@@ -5217,7 +5270,7 @@
         <v>28.288551999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>10000000</v>
       </c>
@@ -5233,7 +5286,7 @@
         <v>27.857354999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>10000000</v>
       </c>
@@ -5249,7 +5302,7 @@
         <v>27.45542</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>10000000</v>
       </c>
@@ -5265,7 +5318,7 @@
         <v>27.487779</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>10000000.199999999</v>
       </c>
@@ -5281,7 +5334,7 @@
         <v>27.742698000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>10000000.199999999</v>
       </c>
@@ -5297,7 +5350,7 @@
         <v>30.650749999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>10000000.199999999</v>
       </c>
@@ -5313,7 +5366,7 @@
         <v>26.392088999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>10000000.199999999</v>
       </c>
@@ -5329,7 +5382,7 @@
         <v>29.338474000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>10000000.5</v>
       </c>
@@ -5345,7 +5398,7 @@
         <v>26.928839</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>10003782.699999999</v>
       </c>
@@ -5361,7 +5414,7 @@
         <v>28.895589999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>12000000</v>
       </c>
@@ -5377,7 +5430,7 @@
         <v>37.539501999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>13844819.199999999</v>
       </c>
@@ -5393,7 +5446,7 @@
         <v>37.602604999999997</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>15000000</v>
       </c>
@@ -5409,7 +5462,7 @@
         <v>46.505882999999997</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>15000000</v>
       </c>
@@ -5425,7 +5478,7 @@
         <v>41.034033999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>15000000</v>
       </c>
@@ -5441,7 +5494,7 @@
         <v>36.338535999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>15000000</v>
       </c>
@@ -5457,7 +5510,7 @@
         <v>41.471077999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>15090104.9</v>
       </c>
@@ -5473,7 +5526,7 @@
         <v>41.400371</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>15251321.399999999</v>
       </c>
@@ -5489,7 +5542,7 @@
         <v>34.879395000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>18000000</v>
       </c>
@@ -5505,7 +5558,7 @@
         <v>46.014341999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>19000000.200000003</v>
       </c>
@@ -5521,7 +5574,7 @@
         <v>65.53613</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
         <v>26410706</v>
       </c>
@@ -5544,21 +5597,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5572,7 +5625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1782311.9</v>
       </c>
@@ -5588,7 +5641,7 @@
         <v>16.028341999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1809349.4</v>
       </c>
@@ -5604,7 +5657,7 @@
         <v>15.731842</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1816727.1</v>
       </c>
@@ -5620,7 +5673,7 @@
         <v>15.932143</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1853942.0999999999</v>
       </c>
@@ -5636,7 +5689,7 @@
         <v>16.338187000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1862068.8</v>
       </c>
@@ -5652,7 +5705,7 @@
         <v>14.810617000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1865625.6000000001</v>
       </c>
@@ -5668,7 +5721,7 @@
         <v>15.261825</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1875124.8</v>
       </c>
@@ -5684,7 +5737,7 @@
         <v>15.597132999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1888424</v>
       </c>
@@ -5700,7 +5753,7 @@
         <v>15.274350999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1906873</v>
       </c>
@@ -5716,7 +5769,7 @@
         <v>15.949837</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1931208.1</v>
       </c>
@@ -5732,7 +5785,7 @@
         <v>15.118325</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1937566.5</v>
       </c>
@@ -5748,7 +5801,7 @@
         <v>15.428140000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1971503.2</v>
       </c>
@@ -5764,7 +5817,7 @@
         <v>16.027481000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1975182.8</v>
       </c>
@@ -5780,7 +5833,7 @@
         <v>16.487857000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1984782.8</v>
       </c>
@@ -5796,7 +5849,7 @@
         <v>15.406568999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1985085.2</v>
       </c>
@@ -5812,7 +5865,7 @@
         <v>14.71269</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1990183.7</v>
       </c>
@@ -5828,7 +5881,7 @@
         <v>14.90015</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1992841.6</v>
       </c>
@@ -5844,7 +5897,7 @@
         <v>14.906585</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1994780.2</v>
       </c>
@@ -5860,7 +5913,7 @@
         <v>14.926178999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2003425.5</v>
       </c>
@@ -5876,7 +5929,7 @@
         <v>15.645447000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2017364.1</v>
       </c>
@@ -5892,7 +5945,7 @@
         <v>15.012862999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2020036</v>
       </c>
@@ -5908,7 +5961,7 @@
         <v>16.350183000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2028602.7</v>
       </c>
@@ -5924,7 +5977,7 @@
         <v>17.191790000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2044597.8</v>
       </c>
@@ -5940,7 +5993,7 @@
         <v>14.790457</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2053147</v>
       </c>
@@ -5956,7 +6009,7 @@
         <v>16.649698000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2056198</v>
       </c>
@@ -5972,7 +6025,7 @@
         <v>15.817548</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2057686.7999999998</v>
       </c>
@@ -5988,7 +6041,7 @@
         <v>15.329319999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2065514.2</v>
       </c>
@@ -6004,7 +6057,7 @@
         <v>15.086930000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2066568.2999999998</v>
       </c>
@@ -6020,7 +6073,7 @@
         <v>16.878769999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2067972.2</v>
       </c>
@@ -6036,7 +6089,7 @@
         <v>15.67981</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2088436.3</v>
       </c>
@@ -6052,7 +6105,7 @@
         <v>14.999485999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2098978.7999999998</v>
       </c>
@@ -6068,7 +6121,7 @@
         <v>17.974616999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2102554.1</v>
       </c>
@@ -6084,7 +6137,7 @@
         <v>15.317174</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2103084.7999999998</v>
       </c>
@@ -6100,7 +6153,7 @@
         <v>15.393554999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2108151.4</v>
       </c>
@@ -6116,7 +6169,7 @@
         <v>14.952472999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2126751.6</v>
       </c>
@@ -6132,7 +6185,7 @@
         <v>15.831985</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2132726</v>
       </c>
@@ -6148,7 +6201,7 @@
         <v>17.171092999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2140888.2000000002</v>
       </c>
@@ -6164,7 +6217,7 @@
         <v>15.132659</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2142448</v>
       </c>
@@ -6180,7 +6233,7 @@
         <v>15.53548</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2142593.6</v>
       </c>
@@ -6196,7 +6249,7 @@
         <v>15.352683000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2150518.2000000002</v>
       </c>
@@ -6212,7 +6265,7 @@
         <v>17.320526000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2152621.7999999998</v>
       </c>
@@ -6228,7 +6281,7 @@
         <v>16.083207999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2158236.6</v>
       </c>
@@ -6244,7 +6297,7 @@
         <v>16.190096</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2159727.2000000002</v>
       </c>
@@ -6260,7 +6313,7 @@
         <v>15.43641</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2163711.2000000002</v>
       </c>
@@ -6276,7 +6329,7 @@
         <v>16.938538999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2166154.6</v>
       </c>
@@ -6292,7 +6345,7 @@
         <v>15.738025</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2168262.5</v>
       </c>
@@ -6308,7 +6361,7 @@
         <v>14.7333</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2178435.2000000002</v>
       </c>
@@ -6324,7 +6377,7 @@
         <v>15.413201000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2203166.7999999998</v>
       </c>
@@ -6340,7 +6393,7 @@
         <v>16.089497000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2215020.9</v>
       </c>
@@ -6356,7 +6409,7 @@
         <v>15.255070999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2217143.6</v>
       </c>
@@ -6372,7 +6425,7 @@
         <v>16.595683000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2217321.1</v>
       </c>
@@ -6388,7 +6441,7 @@
         <v>15.480605000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2222051.2999999998</v>
       </c>
@@ -6404,7 +6457,7 @@
         <v>16.619316999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2222087</v>
       </c>
@@ -6420,7 +6473,7 @@
         <v>15.311698</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2224060.4</v>
       </c>
@@ -6436,7 +6489,7 @@
         <v>15.843223999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2225780.7999999998</v>
       </c>
@@ -6452,7 +6505,7 @@
         <v>18.595257</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2227755.1</v>
       </c>
@@ -6468,7 +6521,7 @@
         <v>18.866845000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2241212.1</v>
       </c>
@@ -6484,7 +6537,7 @@
         <v>16.677965</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2253518.4</v>
       </c>
@@ -6500,7 +6553,7 @@
         <v>15.830681999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2255021.6</v>
       </c>
@@ -6516,7 +6569,7 @@
         <v>18.662362999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2267670</v>
       </c>
@@ -6532,7 +6585,7 @@
         <v>16.315111000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2272924.6</v>
       </c>
@@ -6548,7 +6601,7 @@
         <v>18.156932000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>2279035.5</v>
       </c>
@@ -6564,7 +6617,7 @@
         <v>17.201668999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2282709.6</v>
       </c>
@@ -6580,7 +6633,7 @@
         <v>17.843865000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2284218.2999999998</v>
       </c>
@@ -6596,7 +6649,7 @@
         <v>15.438015</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2287982</v>
       </c>
@@ -6612,7 +6665,7 @@
         <v>16.167898000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2292482.2000000002</v>
       </c>
@@ -6628,7 +6681,7 @@
         <v>17.454743000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2300243.7999999998</v>
       </c>
@@ -6644,7 +6697,7 @@
         <v>16.762528</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2307614.4000000004</v>
       </c>
@@ -6660,7 +6713,7 @@
         <v>15.139576</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2325315.9000000004</v>
       </c>
@@ -6676,7 +6729,7 @@
         <v>17.393605000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2334613.6</v>
       </c>
@@ -6692,7 +6745,7 @@
         <v>17.479927</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2335211.2000000002</v>
       </c>
@@ -6708,7 +6761,7 @@
         <v>16.235893999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2336152.9</v>
       </c>
@@ -6724,7 +6777,7 @@
         <v>17.519124000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2339972.2000000002</v>
       </c>
@@ -6740,7 +6793,7 @@
         <v>16.570520999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2345282.5</v>
       </c>
@@ -6756,7 +6809,7 @@
         <v>17.323789000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2347117.6</v>
       </c>
@@ -6772,7 +6825,7 @@
         <v>16.600545</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2358075.2000000002</v>
       </c>
@@ -6788,7 +6841,7 @@
         <v>17.751778999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2358142.2000000002</v>
       </c>
@@ -6804,7 +6857,7 @@
         <v>16.762920999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2363052.7999999998</v>
       </c>
@@ -6820,7 +6873,7 @@
         <v>18.109835</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2371125.6</v>
       </c>
@@ -6836,7 +6889,7 @@
         <v>17.543624999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2378380</v>
       </c>
@@ -6852,7 +6905,7 @@
         <v>15.357200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>2397501</v>
       </c>
@@ -6868,7 +6921,7 @@
         <v>18.261538000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2398079.2999999998</v>
       </c>
@@ -6884,7 +6937,7 @@
         <v>17.169685999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2411303.4</v>
       </c>
@@ -6900,7 +6953,7 @@
         <v>15.545282</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2413641.6</v>
       </c>
@@ -6916,7 +6969,7 @@
         <v>15.789695999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2418128.7000000002</v>
       </c>
@@ -6932,7 +6985,7 @@
         <v>16.407039000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2419400.7999999998</v>
       </c>
@@ -6948,7 +7001,7 @@
         <v>17.533338000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>2424787.5</v>
       </c>
@@ -6964,7 +7017,7 @@
         <v>16.990167</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2428217.2000000002</v>
       </c>
@@ -6980,7 +7033,7 @@
         <v>16.719031999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2429123.6</v>
       </c>
@@ -6996,7 +7049,7 @@
         <v>16.115416</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2434832.9</v>
       </c>
@@ -7012,7 +7065,7 @@
         <v>19.044191000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2437405</v>
       </c>
@@ -7028,7 +7081,7 @@
         <v>17.723756000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2445581.2000000002</v>
       </c>
@@ -7044,7 +7097,7 @@
         <v>19.402939</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2449418.7000000002</v>
       </c>
@@ -7060,7 +7113,7 @@
         <v>17.834949999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2455669.1</v>
       </c>
@@ -7076,7 +7129,7 @@
         <v>17.784485</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2457996.4</v>
       </c>
@@ -7092,7 +7145,7 @@
         <v>17.921628999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2461805.0999999996</v>
       </c>
@@ -7108,7 +7161,7 @@
         <v>18.410378999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>2462365.6</v>
       </c>
@@ -7124,7 +7177,7 @@
         <v>17.538225000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2490639.4</v>
       </c>
@@ -7140,7 +7193,7 @@
         <v>17.343063999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2493945</v>
       </c>
@@ -7156,7 +7209,7 @@
         <v>16.927689000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2500126</v>
       </c>
@@ -7172,7 +7225,7 @@
         <v>18.140360000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2502273.2999999998</v>
       </c>
@@ -7188,7 +7241,7 @@
         <v>17.102969999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2503103.4</v>
       </c>
@@ -7204,7 +7257,7 @@
         <v>17.522549000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2519640.9</v>
       </c>
@@ -7220,7 +7273,7 @@
         <v>18.517893000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>2530693.6</v>
       </c>
@@ -7236,7 +7289,7 @@
         <v>19.484995000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>2533227.7999999998</v>
       </c>
@@ -7252,7 +7305,7 @@
         <v>16.992346000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2540912.4</v>
       </c>
@@ -7268,7 +7321,7 @@
         <v>17.542121999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2545447.7999999998</v>
       </c>
@@ -7284,7 +7337,7 @@
         <v>18.864146000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>2555281.1</v>
       </c>
@@ -7300,7 +7353,7 @@
         <v>17.366582999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>2559122.9</v>
       </c>
@@ -7316,7 +7369,7 @@
         <v>17.720924</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>2561535.9</v>
       </c>
@@ -7332,7 +7385,7 @@
         <v>19.004781999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>2566525.7999999998</v>
       </c>
@@ -7348,7 +7401,7 @@
         <v>19.591715000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>2569023.4</v>
       </c>
@@ -7364,7 +7417,7 @@
         <v>17.572659999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>2597196</v>
       </c>
@@ -7380,7 +7433,7 @@
         <v>18.455159999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>2608441.2999999998</v>
       </c>
@@ -7396,7 +7449,7 @@
         <v>18.968627999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2612960.4</v>
       </c>
@@ -7412,7 +7465,7 @@
         <v>19.213113</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>2615014.6</v>
       </c>
@@ -7428,7 +7481,7 @@
         <v>18.724843</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>2627336</v>
       </c>
@@ -7444,7 +7497,7 @@
         <v>17.599449</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>2628221.6</v>
       </c>
@@ -7460,7 +7513,7 @@
         <v>17.605763</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>2631174.6</v>
       </c>
@@ -7476,7 +7529,7 @@
         <v>17.549154000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>2637536.2000000002</v>
       </c>
@@ -7492,7 +7545,7 @@
         <v>21.034161000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>2639037.4</v>
       </c>
@@ -7508,7 +7561,7 @@
         <v>18.651122000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>2668471.6</v>
       </c>
@@ -7524,7 +7577,7 @@
         <v>18.389140999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>2670034</v>
       </c>
@@ -7540,7 +7593,7 @@
         <v>19.265239999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>2723591.6</v>
       </c>
@@ -7556,7 +7609,7 @@
         <v>18.546074000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>2750021.8</v>
       </c>
@@ -7572,7 +7625,7 @@
         <v>19.455674999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>2756782.4</v>
       </c>
@@ -7588,7 +7641,7 @@
         <v>19.245211000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>2759171.3</v>
       </c>
@@ -7604,7 +7657,7 @@
         <v>19.218205999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>2790860.2</v>
       </c>
@@ -7620,7 +7673,7 @@
         <v>19.118801000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>2847857.1</v>
       </c>
@@ -7636,7 +7689,7 @@
         <v>19.473654</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>2899085.4</v>
       </c>
@@ -7652,7 +7705,7 @@
         <v>18.558558000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>2966298.5</v>
       </c>
@@ -7668,7 +7721,7 @@
         <v>19.964749000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>2991944.6</v>
       </c>
@@ -7684,7 +7737,7 @@
         <v>21.062775999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>2998759.8</v>
       </c>
@@ -7700,7 +7753,7 @@
         <v>22.767976999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>4752720.0999999996</v>
       </c>
@@ -7716,7 +7769,7 @@
         <v>19.467227999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>4848705.8</v>
       </c>
@@ -7732,7 +7785,7 @@
         <v>21.091733000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>4951172.0999999996</v>
       </c>
@@ -7748,7 +7801,7 @@
         <v>18.107043000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>5000000</v>
       </c>
@@ -7764,7 +7817,7 @@
         <v>21.443595999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>5000000</v>
       </c>
@@ -7780,7 +7833,7 @@
         <v>20.702407999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>5000000</v>
       </c>
@@ -7796,7 +7849,7 @@
         <v>19.979922999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>5000000</v>
       </c>
@@ -7812,7 +7865,7 @@
         <v>22.535812</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>5000000</v>
       </c>
@@ -7828,7 +7881,7 @@
         <v>19.945364999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>5000000</v>
       </c>
@@ -7844,7 +7897,7 @@
         <v>18.242343999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>5000000</v>
       </c>
@@ -7860,7 +7913,7 @@
         <v>19.815314999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>5000000</v>
       </c>
@@ -7876,7 +7929,7 @@
         <v>18.657015999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>5000000</v>
       </c>
@@ -7892,7 +7945,7 @@
         <v>19.930437999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>5000000</v>
       </c>
@@ -7908,7 +7961,7 @@
         <v>22.035343000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>5000000.0999999996</v>
       </c>
@@ -7924,7 +7977,7 @@
         <v>18.887084999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>5000000.0999999996</v>
       </c>
@@ -7940,7 +7993,7 @@
         <v>20.285064999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>5042113.5999999996</v>
       </c>
@@ -7956,7 +8009,7 @@
         <v>20.770575000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>5052561.7</v>
       </c>
@@ -7972,7 +8025,7 @@
         <v>20.007598999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>5074381.4000000004</v>
       </c>
@@ -7988,7 +8041,7 @@
         <v>21.06109</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>5077143.2</v>
       </c>
@@ -8004,7 +8057,7 @@
         <v>18.068449000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>5124608.5</v>
       </c>
@@ -8020,7 +8073,7 @@
         <v>20.970423</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>5124923.8</v>
       </c>
@@ -8036,7 +8089,7 @@
         <v>23.014713</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>5161539.5999999996</v>
       </c>
@@ -8052,7 +8105,7 @@
         <v>21.910657</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>5196194.9000000004</v>
       </c>
@@ -8068,7 +8121,7 @@
         <v>20.638335000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>5204772.3</v>
       </c>
@@ -8084,7 +8137,7 @@
         <v>20.557397999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>5220383.2</v>
       </c>
@@ -8100,7 +8153,7 @@
         <v>21.551596</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>5221495.0999999996</v>
       </c>
@@ -8116,7 +8169,7 @@
         <v>19.701640999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>5290060.4000000004</v>
       </c>
@@ -8132,7 +8185,7 @@
         <v>21.668419</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>5349032.2</v>
       </c>
@@ -8148,7 +8201,7 @@
         <v>19.481597000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>5352484</v>
       </c>
@@ -8164,7 +8217,7 @@
         <v>21.653922000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>5396936.9000000004</v>
       </c>
@@ -8180,7 +8233,7 @@
         <v>21.233231</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>5428825.8000000007</v>
       </c>
@@ -8196,7 +8249,7 @@
         <v>22.641931</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>5464899.7999999998</v>
       </c>
@@ -8212,7 +8265,7 @@
         <v>23.088719999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>5476638.4000000004</v>
       </c>
@@ -8228,7 +8281,7 @@
         <v>23.001714</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>5491369.5</v>
       </c>
@@ -8244,7 +8297,7 @@
         <v>19.551238000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>5493586.7999999998</v>
       </c>
@@ -8260,7 +8313,7 @@
         <v>22.761859000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>5545791.5999999996</v>
       </c>
@@ -8276,7 +8329,7 @@
         <v>20.603441</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>5576929.8000000007</v>
       </c>
@@ -8292,7 +8345,7 @@
         <v>22.665794000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>5622411.5999999996</v>
       </c>
@@ -8308,7 +8361,7 @@
         <v>23.475891000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>5699746.4000000004</v>
       </c>
@@ -8324,7 +8377,7 @@
         <v>20.238845000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>5701309.5999999996</v>
       </c>
@@ -8340,7 +8393,7 @@
         <v>21.191153</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>5758290</v>
       </c>
@@ -8356,7 +8409,7 @@
         <v>20.489280999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>5825437.7999999998</v>
       </c>
@@ -8372,7 +8425,7 @@
         <v>21.15767</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>5952369.2999999998</v>
       </c>
@@ -8388,7 +8441,7 @@
         <v>21.699736999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>6641215.2000000002</v>
       </c>
@@ -8404,7 +8457,7 @@
         <v>24.361224</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>8000000</v>
       </c>
@@ -8420,7 +8473,7 @@
         <v>26.498567999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>10000000</v>
       </c>
@@ -8436,7 +8489,7 @@
         <v>32.371872000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>10000000</v>
       </c>
@@ -8452,7 +8505,7 @@
         <v>29.504158</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>10000000</v>
       </c>
@@ -8468,7 +8521,7 @@
         <v>29.238439</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>10000000</v>
       </c>
@@ -8484,7 +8537,7 @@
         <v>28.584882</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>10000000</v>
       </c>
@@ -8500,7 +8553,7 @@
         <v>29.728287000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>10000000</v>
       </c>
@@ -8516,7 +8569,7 @@
         <v>29.736663</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>10000000</v>
       </c>
@@ -8532,7 +8585,7 @@
         <v>30.076049000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>10000000</v>
       </c>
@@ -8548,7 +8601,7 @@
         <v>28.983751999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>10000000</v>
       </c>
@@ -8564,7 +8617,7 @@
         <v>26.191071999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>10000000</v>
       </c>
@@ -8580,7 +8633,7 @@
         <v>28.288551999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>10000000</v>
       </c>
@@ -8596,7 +8649,7 @@
         <v>27.857354999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>10000000</v>
       </c>
@@ -8612,7 +8665,7 @@
         <v>27.45542</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>10000000</v>
       </c>
@@ -8628,7 +8681,7 @@
         <v>27.487779</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>10000000.199999999</v>
       </c>
@@ -8644,7 +8697,7 @@
         <v>27.742698000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>10000000.199999999</v>
       </c>
@@ -8660,7 +8713,7 @@
         <v>30.650749999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>10000000.199999999</v>
       </c>
@@ -8676,7 +8729,7 @@
         <v>26.392088999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>10000000.199999999</v>
       </c>
@@ -8692,7 +8745,7 @@
         <v>29.338474000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>10000000.5</v>
       </c>
@@ -8708,7 +8761,7 @@
         <v>26.928839</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>10003782.699999999</v>
       </c>
@@ -8724,7 +8777,7 @@
         <v>28.895589999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>12000000</v>
       </c>
@@ -8740,7 +8793,7 @@
         <v>37.539501999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>13844819.199999999</v>
       </c>
@@ -8756,7 +8809,7 @@
         <v>37.602604999999997</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>15000000</v>
       </c>
@@ -8772,7 +8825,7 @@
         <v>46.505882999999997</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>15000000</v>
       </c>
@@ -8788,7 +8841,7 @@
         <v>41.034033999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>15000000</v>
       </c>
@@ -8804,7 +8857,7 @@
         <v>36.338535999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>15000000</v>
       </c>
@@ -8820,7 +8873,7 @@
         <v>41.471077999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>15090104.9</v>
       </c>
@@ -8836,7 +8889,7 @@
         <v>41.400371</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>15251321.399999999</v>
       </c>
@@ -8852,7 +8905,7 @@
         <v>34.879395000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>18000000</v>
       </c>
@@ -8868,7 +8921,7 @@
         <v>46.014341999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>19000000.200000003</v>
       </c>
@@ -8884,7 +8937,7 @@
         <v>65.53613</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
         <v>26410706</v>
       </c>
@@ -8908,40 +8961,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="115.85546875" customWidth="1"/>
+    <col min="1" max="1" width="115.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
     </row>
-    <row r="4" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
     </row>
-    <row r="5" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
